--- a/StructureDefinition-profile-MedicationStatement.xlsx
+++ b/StructureDefinition-profile-MedicationStatement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="299">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7386073-06:00</t>
+    <t>2026-02-09T22:05:43.2101026-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,6 +459,12 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>MedicationStatement.extension:effective</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.effective|0.0.1-snapshot-3}
 </t>
   </si>
@@ -469,11 +475,71 @@
     <t>The interval of time during which it is being asserted that the patient is/was/will be taking the medication (or was not taking, when the MedicationStatement.adherence element is Not Taking).</t>
   </si>
   <si>
-    <t>This attribute reflects the period over which the patient consumed the medication and is expected to be populated on the majority of Medication Statements. If the medication is still being taken and is expected to continue indefinitely at the time the usage is recorded, the "end" date will be omitted.  If the end date is known, then it is included as the "end date".  The date/time attribute supports a variety of dates - year, year/month and exact date.  If something more than this is required, this should be conveyed as text.</t>
+    <t>Note that the target element context `MedicationStatement.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationStatement`.
+Element `MedicationStatement.effective[x]` is mapped to FHIR R4 element `MedicationStatement.effective[x]`.
+Note that the target element context `MedicationStatement.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationStatement`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:renderedDosageInstruction</t>
+  </si>
+  <si>
+    <t>renderedDosageInstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.renderedDosageInstruction|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationStatement.renderedDosageInstruction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The full representation of the dose of the medication included in all dosage instructions.  To be used when multiple dosage instructions are included to represent complex dosing such as increasing or tapering doses.</t>
+  </si>
+  <si>
+    <t>Element `MedicationStatement.renderedDosageInstruction` is will have a context of MedicationStatement based on following the parent source element upwards and mapping to `MedicationStatement`.</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:adherence</t>
+  </si>
+  <si>
+    <t>adherence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.adherence|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationStatement.adherence from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates whether the medication is or is not being consumed or administered.</t>
+  </si>
+  <si>
+    <t>Element `MedicationStatement.adherence` is will have a context of MedicationStatement based on following the parent source element upwards and mapping to `MedicationStatement`.</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:relatedClinicalInformation</t>
+  </si>
+  <si>
+    <t>relatedClinicalInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationStatement.relatedClinicalInformation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Condition,http://hl7.org/fhir/StructureDefinition/Observation in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationStatement.relatedClinicalInformation` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicationStatement.relatedClinicalInformation` is will have a context of MedicationStatement based on following the parent source element upwards and mapping to `MedicationStatement`.</t>
   </si>
   <si>
     <t>MedicationStatement.modifierExtension</t>
@@ -1200,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN28"/>
+  <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1209,9 +1275,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.33984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2181,7 +2247,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2280,12 +2346,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2306,16 +2374,16 @@
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2374,7 +2442,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2394,46 +2462,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2481,7 +2549,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2490,7 +2558,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>139</v>
@@ -2499,7 +2567,7 @@
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2510,12 +2578,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2524,7 +2594,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2533,19 +2603,19 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2595,7 +2665,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2604,19 +2674,19 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2624,12 +2694,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2647,7 +2719,7 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>161</v>
@@ -2658,10 +2730,10 @@
       <c r="M13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>164</v>
       </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2709,7 +2781,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2721,13 +2793,13 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2738,14 +2810,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2758,23 +2830,25 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2823,7 +2897,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2835,13 +2909,13 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -2852,10 +2926,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2863,31 +2937,31 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2913,13 +2987,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -2937,13 +3011,13 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
@@ -2952,13 +3026,13 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -2966,10 +3040,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2989,21 +3063,21 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3027,13 +3101,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3051,7 +3125,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3066,10 +3140,10 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3080,10 +3154,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3094,7 +3168,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3106,16 +3180,18 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3139,13 +3215,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3163,13 +3239,13 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
@@ -3178,13 +3254,13 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3192,10 +3268,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3212,22 +3288,22 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3253,13 +3329,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3277,7 +3353,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>88</v>
@@ -3292,13 +3368,13 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3306,10 +3382,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3317,10 +3393,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3329,18 +3405,20 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3365,13 +3443,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3389,13 +3467,13 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -3404,24 +3482,24 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3444,13 +3522,13 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3477,13 +3555,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3501,7 +3579,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3516,13 +3594,13 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3530,10 +3608,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3541,7 +3619,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
@@ -3556,16 +3634,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3591,13 +3669,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -3615,10 +3693,10 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>88</v>
@@ -3630,13 +3708,13 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3644,10 +3722,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3655,7 +3733,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -3670,13 +3748,13 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3727,10 +3805,10 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>88</v>
@@ -3742,16 +3820,16 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -3779,7 +3857,7 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>240</v>
@@ -3854,13 +3932,13 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -3882,7 +3960,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -3891,7 +3969,7 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>246</v>
@@ -3959,7 +4037,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -3968,13 +4046,13 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -3982,10 +4060,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3996,7 +4074,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4005,20 +4083,18 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4043,13 +4119,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4067,13 +4143,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4082,13 +4158,13 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4096,10 +4172,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4110,7 +4186,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4122,17 +4198,15 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>264</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4181,13 +4255,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4196,13 +4270,13 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4210,10 +4284,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4236,15 +4310,17 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4293,7 +4369,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4308,10 +4384,10 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4322,10 +4398,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4348,16 +4424,16 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4383,13 +4459,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4407,7 +4483,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4422,15 +4498,355 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>278</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MedicationStatement.xlsx
+++ b/StructureDefinition-profile-MedicationStatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2101026-06:00</t>
+    <t>2026-02-17T14:42:26.8523514-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -476,7 +476,7 @@
   </si>
   <si>
     <t>Note that the target element context `MedicationStatement.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationStatement`.
-Element `MedicationStatement.effective[x]` is mapped to FHIR R4 element `MedicationStatement.effective[x]`.
+Element `MedicationStatement.effective[x]` has is mapped to FHIR R4 element `MedicationStatement.effective[x]`, but has no comparisons.
 Note that the target element context `MedicationStatement.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationStatement`.</t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>The full representation of the dose of the medication included in all dosage instructions.  To be used when multiple dosage instructions are included to represent complex dosing such as increasing or tapering doses.</t>
   </si>
   <si>
-    <t>Element `MedicationStatement.renderedDosageInstruction` is will have a context of MedicationStatement based on following the parent source element upwards and mapping to `MedicationStatement`.</t>
+    <t>Element `MedicationStatement.renderedDosageInstruction` has a context of MedicationStatement based on following the parent source element upwards and mapping to `MedicationStatement`.</t>
   </si>
   <si>
     <t>MedicationStatement.extension:adherence</t>
@@ -519,7 +519,7 @@
     <t>Indicates whether the medication is or is not being consumed or administered.</t>
   </si>
   <si>
-    <t>Element `MedicationStatement.adherence` is will have a context of MedicationStatement based on following the parent source element upwards and mapping to `MedicationStatement`.</t>
+    <t>Element `MedicationStatement.adherence` has a context of MedicationStatement based on following the parent source element upwards and mapping to `MedicationStatement`.</t>
   </si>
   <si>
     <t>MedicationStatement.extension:relatedClinicalInformation</t>
@@ -539,7 +539,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationStatement.relatedClinicalInformation` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationStatement.relatedClinicalInformation` is will have a context of MedicationStatement based on following the parent source element upwards and mapping to `MedicationStatement`.</t>
+Element `MedicationStatement.relatedClinicalInformation` has a context of MedicationStatement based on following the parent source element upwards and mapping to `MedicationStatement`.</t>
   </si>
   <si>
     <t>MedicationStatement.modifierExtension</t>

--- a/StructureDefinition-profile-MedicationStatement.xlsx
+++ b/StructureDefinition-profile-MedicationStatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8523514-06:00</t>
+    <t>2026-02-20T11:59:20.8825092-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationStatement|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationStatement</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -465,7 +465,7 @@
     <t>effective</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.effective|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.effective}
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>renderedDosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.renderedDosageInstruction|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.renderedDosageInstruction}
 </t>
   </si>
   <si>
@@ -509,7 +509,7 @@
     <t>adherence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.adherence|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.adherence}
 </t>
   </si>
   <si>
@@ -528,7 +528,7 @@
     <t>relatedClinicalInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-MedicationStatement.xlsx
+++ b/StructureDefinition-profile-MedicationStatement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="293">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8825092-06:00</t>
+    <t>2026-02-21T13:36:54.286244-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationStatement</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationStatement|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -465,7 +465,7 @@
     <t>effective</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.effective}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.effective|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -476,7 +476,7 @@
   </si>
   <si>
     <t>Note that the target element context `MedicationStatement.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationStatement`.
-Element `MedicationStatement.effective[x]` has is mapped to FHIR R4 element `MedicationStatement.effective[x]`, but has no comparisons.
+Element `MedicationStatement.effective[x]` is mapped to FHIR R4 element `MedicationStatement.effective[x]` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note that the target element context `MedicationStatement.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationStatement`.</t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>renderedDosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.renderedDosageInstruction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.renderedDosageInstruction|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -509,7 +509,7 @@
     <t>adherence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.adherence}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationStatement.adherence|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -520,26 +520,6 @@
   </si>
   <si>
     <t>Element `MedicationStatement.adherence` has a context of MedicationStatement based on following the parent source element upwards and mapping to `MedicationStatement`.</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:relatedClinicalInformation</t>
-  </si>
-  <si>
-    <t>relatedClinicalInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationStatement.relatedClinicalInformation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Condition,http://hl7.org/fhir/StructureDefinition/Observation in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationStatement.relatedClinicalInformation` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationStatement.relatedClinicalInformation` has a context of MedicationStatement based on following the parent source element upwards and mapping to `MedicationStatement`.</t>
   </si>
   <si>
     <t>MedicationStatement.modifierExtension</t>
@@ -1266,7 +1246,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2697,13 +2677,11 @@
         <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2716,24 +2694,26 @@
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2781,7 +2761,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2799,7 +2779,7 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2810,14 +2790,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2830,26 +2810,24 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J14" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O14" t="s" s="2">
         <v>170</v>
       </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -2897,7 +2875,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2909,16 +2887,16 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -2926,10 +2904,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2952,18 +2930,18 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3011,7 +2989,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3026,13 +3004,13 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3040,10 +3018,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3066,17 +3044,17 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3125,7 +3103,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3140,10 +3118,10 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3154,10 +3132,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3165,22 +3143,22 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>189</v>
@@ -3188,10 +3166,10 @@
       <c r="M17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>191</v>
       </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3215,13 +3193,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3239,13 +3217,13 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
@@ -3254,13 +3232,13 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3268,10 +3246,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3279,31 +3257,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3329,37 +3307,37 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -3368,13 +3346,13 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3382,10 +3360,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3396,7 +3374,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3405,20 +3383,18 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3443,13 +3419,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3467,13 +3443,13 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -3482,13 +3458,13 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3496,10 +3472,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3507,7 +3483,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -3522,15 +3498,17 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3555,13 +3533,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3579,10 +3557,10 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>88</v>
@@ -3594,13 +3572,13 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3608,10 +3586,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3634,17 +3612,15 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3669,13 +3645,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -3693,7 +3669,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
@@ -3708,24 +3684,24 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3733,7 +3709,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -3748,13 +3724,13 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3805,10 +3781,10 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>88</v>
@@ -3820,16 +3796,16 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -3868,7 +3844,9 @@
       <c r="M23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3932,13 +3910,13 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -3946,10 +3924,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3972,17 +3950,15 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4031,7 +4007,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4046,7 +4022,7 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>251</v>
@@ -4083,7 +4059,7 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>254</v>
@@ -4186,7 +4162,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4206,7 +4182,9 @@
       <c r="M26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="N26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4261,7 +4239,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4273,10 +4251,10 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4310,16 +4288,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4345,13 +4323,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4384,13 +4362,13 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4398,10 +4376,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4424,16 +4402,16 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4459,13 +4437,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4483,7 +4461,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4498,13 +4476,13 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4512,10 +4490,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4538,17 +4516,15 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N29" t="s" s="2">
         <v>284</v>
       </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4597,7 +4573,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4618,7 +4594,7 @@
         <v>286</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4660,7 +4636,9 @@
       <c r="M30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4724,7 +4702,7 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>292</v>
@@ -4733,120 +4711,6 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN31" t="s" s="2">
         <v>77</v>
       </c>
     </row>
